--- a/data/data-switched.xlsx
+++ b/data/data-switched.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Algeria</t>
   </si>
@@ -205,26 +205,47 @@
     <t>notAtAllHappy</t>
   </si>
   <si>
-    <t>noAnswer</t>
-  </si>
-  <si>
-    <t>dontKnow</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
     <t>totalVotes</t>
   </si>
   <si>
-    <t>sumOfValues</t>
+    <t>veryGoodHealth</t>
+  </si>
+  <si>
+    <t>goodHealth</t>
+  </si>
+  <si>
+    <t>fairHealth</t>
+  </si>
+  <si>
+    <t>poorHealth</t>
+  </si>
+  <si>
+    <t>missingHealthData</t>
+  </si>
+  <si>
+    <t>noAnswerHappy</t>
+  </si>
+  <si>
+    <t>dontKnowHappy</t>
+  </si>
+  <si>
+    <t>noAnswerHealth</t>
+  </si>
+  <si>
+    <t>dontKnowHealth</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -248,6 +269,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,11 +301,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -587,12 +624,12 @@
     <col min="2" max="16" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>59</v>
@@ -607,1571 +644,2861 @@
         <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1200</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>57.9</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>15.2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>3.8</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>5.5</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>22.4</v>
+      </c>
+      <c r="J2" s="6">
+        <v>42.6</v>
+      </c>
+      <c r="K2" s="6">
+        <v>25.6</v>
+      </c>
+      <c r="L2" s="6">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>1002</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>27.2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <v>53.4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>16.8</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
         <v>2.6</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="J3" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="K3" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="L3" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1030</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>53.1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>11.6</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>0.5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>46.4</v>
+      </c>
+      <c r="K4" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L4" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>1477</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>34.9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>57.7</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>6.2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
         <v>0.5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>0.7</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>31.6</v>
+      </c>
+      <c r="J5" s="6">
+        <v>46.2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="L5" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>1200</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>21.8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>50.8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>20.399999999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
         <v>6.6</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>49.6</v>
+      </c>
+      <c r="K6" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="L6" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>1100</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>31.2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>50.8</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>12</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>0.1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="J7" s="6">
+        <v>30</v>
+      </c>
+      <c r="K7" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="L7" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>1486</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>35.200000000000003</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>56.8</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <v>7.2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>0.8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>0.1</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>24.2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>47</v>
+      </c>
+      <c r="K8" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="L8" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>1535</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>10.6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>53.1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>27.3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>3.5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>28.9</v>
+      </c>
+      <c r="K9" s="6">
+        <v>51.9</v>
+      </c>
+      <c r="L9" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>1000</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>24.4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>60.1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>14.4</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>0.8</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>0.2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="6">
+        <v>19</v>
+      </c>
+      <c r="J10" s="6">
+        <v>53.7</v>
+      </c>
+      <c r="K10" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>2300</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>15.7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>68.8</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <v>13.3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>0.5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="6">
+        <v>23.6</v>
+      </c>
+      <c r="J11" s="6">
+        <v>45.1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>24.7</v>
+      </c>
+      <c r="L11" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>1238</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>26</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>63.9</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>7.8</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>1.3</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>0.2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="6">
+        <v>27.4</v>
+      </c>
+      <c r="J12" s="6">
+        <v>58.9</v>
+      </c>
+      <c r="K12" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="L12" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>1512</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>56.5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>35</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>7.9</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="5">
         <v>0.5</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>0.1</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="K13" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>1000</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>25.9</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>55.8</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>14.4</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="5">
         <v>3.5</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>0.2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="6">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="J14" s="6">
+        <v>35.1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="L14" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>1202</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>57.7</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>35.299999999999997</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="5">
         <v>6.2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="5">
         <v>0.7</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>25.6</v>
+      </c>
+      <c r="J15" s="6">
+        <v>48.4</v>
+      </c>
+      <c r="K15" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="L15" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>1533</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>12.7</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>64</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="5">
         <v>19.899999999999999</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="5">
         <v>1.9</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>0.1</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="J16" s="6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K16" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="L16" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>1000</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>10.3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>64.099999999999994</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="5">
         <v>19.7</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="5">
         <v>5.5</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="6">
+        <v>28</v>
+      </c>
+      <c r="J17" s="6">
+        <v>46.8</v>
+      </c>
+      <c r="K17" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L17" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>2046</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>23.1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>60.9</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="5">
         <v>13.4</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="5">
         <v>1.5</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="5">
         <v>0.2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="6">
+        <v>27.7</v>
+      </c>
+      <c r="J18" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>25.3</v>
+      </c>
+      <c r="L18" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>1552</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>51</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>29.8</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="5">
         <v>15.9</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="5">
         <v>3.3</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>49.7</v>
+      </c>
+      <c r="J19" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="K19" s="6">
+        <v>10</v>
+      </c>
+      <c r="L19" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>1000</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>23.4</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>65.7</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="5">
         <v>1.4</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>0.2</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="J20" s="6">
+        <v>43</v>
+      </c>
+      <c r="K20" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="L20" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>1581</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>38.200000000000003</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>42.6</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="5">
         <v>14.5</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="5">
         <v>4.5</v>
       </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="6">
+        <v>33.1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K21" s="6">
+        <v>23</v>
+      </c>
+      <c r="L21" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>1200</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>10.5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>57.5</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
         <v>26.3</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="5">
         <v>4.8</v>
       </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="J22" s="6">
+        <v>49.2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>27.3</v>
+      </c>
+      <c r="L22" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>2443</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>32.299999999999997</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>54.2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="5">
         <v>9.4</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="5">
         <v>1</v>
       </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="J23" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="K23" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="L23" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>1502</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>31.2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>57.3</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="5">
         <v>11.1</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="5">
         <v>0.4</v>
       </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="J24" s="6">
+        <v>48.1</v>
+      </c>
+      <c r="K24" s="6">
+        <v>33</v>
+      </c>
+      <c r="L24" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>1200</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>20.8</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>65</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="5">
         <v>4.5</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="J25" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="K25" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="L25" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>1200</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <v>15.2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>74.8</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="5">
         <v>0.7</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="5">
         <v>0.1</v>
       </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="J26" s="6">
+        <v>65.2</v>
+      </c>
+      <c r="K26" s="6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>1303</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <v>41.3</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <v>50.3</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="5">
         <v>6.4</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="5">
         <v>0.9</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="5">
         <v>0.4</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="6">
+        <v>42.2</v>
+      </c>
+      <c r="J27" s="6">
+        <v>42.1</v>
+      </c>
+      <c r="K27" s="6">
+        <v>13</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>1500</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <v>36.200000000000003</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <v>59.7</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="5">
         <v>3.7</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="5">
         <v>0.3</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="5">
         <v>0.1</v>
       </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="J28" s="6">
+        <v>56.9</v>
+      </c>
+      <c r="K28" s="6">
+        <v>21.9</v>
+      </c>
+      <c r="L28" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>1200</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <v>60.4</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="5">
         <v>19</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="5">
         <v>0.5</v>
       </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>47.7</v>
+      </c>
+      <c r="K29" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="L29" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>2131</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="5">
         <v>38.5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <v>49</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="5">
         <v>2.9</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="5">
         <v>0.2</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="J30" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="K30" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="L30" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>1300</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="5">
         <v>56.5</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <v>39.5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="5">
         <v>3.9</v>
       </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="J31" s="6">
+        <v>48.5</v>
+      </c>
+      <c r="K31" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>2000</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <v>67.5</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <v>26.8</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="5">
         <v>5.3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="5">
         <v>0.4</v>
       </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>46.6</v>
+      </c>
+      <c r="K32" s="6">
+        <v>25</v>
+      </c>
+      <c r="L32" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>1200</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="5">
         <v>21</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <v>57.3</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="5">
         <v>15.8</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="5">
         <v>5.6</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="5">
         <v>0.2</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="J33" s="6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="K33" s="6">
+        <v>23.2</v>
+      </c>
+      <c r="L33" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>1902</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="5">
         <v>31.9</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <v>60.5</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="5">
         <v>6</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="5">
         <v>0.6</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>60.2</v>
+      </c>
+      <c r="K34" s="6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L34" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>841</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="5">
         <v>33.700000000000003</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="5">
         <v>58.7</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="5">
         <v>4.3</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="5">
         <v>0.7</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="5">
         <v>1.8</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="J35" s="6">
+        <v>45.2</v>
+      </c>
+      <c r="K35" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="L35" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>1759</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="5">
         <v>55.6</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="5">
         <v>29.1</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="5">
         <v>11.6</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="5">
         <v>3.7</v>
       </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>55</v>
+      </c>
+      <c r="J36" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="K36" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>1200</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="5">
         <v>45.6</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="5">
         <v>39.1</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="5">
         <v>10.9</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="5">
         <v>4.2</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="5">
         <v>0.2</v>
       </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="J37" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="K37" s="6">
+        <v>15.7</v>
+      </c>
+      <c r="L37" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>1210</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="5">
         <v>35.1</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="5">
         <v>40.9</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="5">
         <v>22.4</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="5">
         <v>0.9</v>
       </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="J38" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="K38" s="6">
+        <v>41.8</v>
+      </c>
+      <c r="L38" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>1200</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="5">
         <v>49.6</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="5">
         <v>39.799999999999997</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="5">
         <v>9.6</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>17.7</v>
+      </c>
+      <c r="J39" s="6">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="K39" s="6">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="L39" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>966</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="5">
         <v>22.2</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="5">
         <v>70.400000000000006</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="5">
         <v>5.3</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="5">
         <v>0.5</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="5">
         <v>0.5</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="6">
+        <v>20.9</v>
+      </c>
+      <c r="J40" s="6">
+        <v>40.4</v>
+      </c>
+      <c r="K40" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="L40" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>1060</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="5">
         <v>56.4</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="5">
         <v>41.6</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="5">
         <v>1.7</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="5">
         <v>0.3</v>
       </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="J41" s="6">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="K41" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="L41" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>1503</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="5">
         <v>13.6</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="5">
         <v>55.4</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="5">
         <v>26.4</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="5">
         <v>4</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="5">
         <v>0.3</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="J42" s="6">
+        <v>49.7</v>
+      </c>
+      <c r="K42" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="L42" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>2500</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="5">
         <v>14.8</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="5">
         <v>58.5</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="5">
         <v>20.7</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="5">
         <v>1.8</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="5">
         <v>0.3</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="5">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J43" s="6">
+        <v>39</v>
+      </c>
+      <c r="K43" s="6">
+        <v>44.5</v>
+      </c>
+      <c r="L43" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>1527</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="5">
         <v>40.6</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="5">
         <v>49.8</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="5">
         <v>8.5</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="5">
         <v>1</v>
       </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J44" s="6">
+        <v>49.1</v>
+      </c>
+      <c r="K44" s="6">
+        <v>13</v>
+      </c>
+      <c r="L44" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>1972</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="5">
         <v>39.1</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="5">
         <v>53.9</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="5">
         <v>6.5</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="5">
         <v>0.5</v>
       </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>27</v>
+      </c>
+      <c r="J45" s="6">
+        <v>53.6</v>
+      </c>
+      <c r="K45" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="L45" s="6">
+        <v>2</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>1069</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="5">
         <v>19.5</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
         <v>63.8</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="5">
         <v>14.2</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="5">
         <v>1.8</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="5">
         <v>0.5</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="6">
+        <v>22.3</v>
+      </c>
+      <c r="J46" s="6">
+        <v>42.8</v>
+      </c>
+      <c r="K46" s="6">
+        <v>22.9</v>
+      </c>
+      <c r="L46" s="6">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>3531</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="5">
         <v>39.299999999999997</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="5">
         <v>37.1</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="5">
         <v>17.7</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="5">
         <v>5.6</v>
       </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="6">
+        <v>41.8</v>
+      </c>
+      <c r="J47" s="6">
+        <v>42</v>
+      </c>
+      <c r="K47" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="L47" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>1499</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="5">
         <v>39.4</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="5">
         <v>39.5</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="5">
         <v>18.7</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="5">
         <v>2.5</v>
       </c>
-      <c r="G48" s="2">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>46.5</v>
+      </c>
+      <c r="J48" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="K48" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="L48" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>1189</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="5">
         <v>15.5</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="5">
         <v>70.900000000000006</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="5">
         <v>12.2</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G49" s="2">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="6">
+        <v>20.3</v>
+      </c>
+      <c r="J49" s="6">
+        <v>53.9</v>
+      </c>
+      <c r="K49" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="L49" s="6">
+        <v>5</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>1206</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="5">
         <v>40.5</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="5">
         <v>54.1</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="5">
         <v>0.4</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="5">
         <v>0.2</v>
       </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>30.8</v>
+      </c>
+      <c r="J50" s="6">
+        <v>44.8</v>
+      </c>
+      <c r="K50" s="6">
+        <v>21</v>
+      </c>
+      <c r="L50" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>1200</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="5">
         <v>39.700000000000003</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="5">
         <v>53.3</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="5">
         <v>5.3</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="5">
         <v>1.6</v>
       </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>29.4</v>
+      </c>
+      <c r="J51" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="K51" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>999</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="5">
         <v>54.2</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="5">
         <v>33.799999999999997</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="5">
         <v>11.1</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="5">
         <v>0.9</v>
       </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>42.5</v>
+      </c>
+      <c r="J52" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="K52" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="L52" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>1205</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="5">
         <v>16.7</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="5">
         <v>62.6</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="5">
         <v>15.8</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="5">
         <v>4.7</v>
       </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="6">
+        <v>28</v>
+      </c>
+      <c r="J53" s="6">
+        <v>42.1</v>
+      </c>
+      <c r="K53" s="6">
+        <v>23</v>
+      </c>
+      <c r="L53" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>1605</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="5">
         <v>37.5</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="5">
         <v>46.3</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="5">
         <v>11.9</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="5">
         <v>3.8</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="5">
         <v>0.3</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="J54" s="6">
+        <v>47.6</v>
+      </c>
+      <c r="K54" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="L54" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>1500</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="5">
         <v>52</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="5">
         <v>22.6</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="5">
         <v>4.2</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="5">
         <v>0.7</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="5">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="6">
+        <v>6</v>
+      </c>
+      <c r="J55" s="6">
+        <v>31.2</v>
+      </c>
+      <c r="K55" s="6">
+        <v>45.5</v>
+      </c>
+      <c r="L55" s="6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>1523</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="5">
         <v>5.3</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="5">
         <v>20.7</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="5">
         <v>30.1</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="5">
         <v>44</v>
       </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="J56" s="6">
+        <v>45</v>
+      </c>
+      <c r="K56" s="6">
+        <v>25</v>
+      </c>
+      <c r="L56" s="6">
+        <v>15.7</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>2232</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="5">
         <v>36.1</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="5">
         <v>53.5</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="5">
         <v>1.2</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="5">
         <v>0.5</v>
       </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>27.8</v>
+      </c>
+      <c r="J57" s="6">
+        <v>52.1</v>
+      </c>
+      <c r="K57" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L57" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="O57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>1000</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="5">
         <v>34.200000000000003</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="5">
         <v>51.8</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="5">
         <v>11.4</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="5">
         <v>2.1</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="5">
         <v>0.4</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="J58" s="6">
+        <v>54.6</v>
+      </c>
+      <c r="K58" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L58" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>1500</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="5">
         <v>64.5</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="5">
         <v>31.5</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="5">
         <v>3.3</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="5">
         <v>0.2</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="5">
         <v>0.5</v>
       </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="J59" s="6">
+        <v>48</v>
+      </c>
+      <c r="K59" s="6">
+        <v>22.3</v>
+      </c>
+      <c r="L59" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>1000</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="5">
         <v>54.2</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="5">
         <v>24.4</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="5">
         <v>3.5</v>
       </c>
-      <c r="G60" s="2">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="J60" s="6">
+        <v>46.1</v>
+      </c>
+      <c r="K60" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="L60" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B61" s="1">
         <v>85072</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="7">
         <v>32.4</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="7">
         <v>51</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="7">
         <v>12.8</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="7">
         <v>2.9</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="7">
         <v>0.3</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="7">
         <v>0.6</v>
       </c>
+      <c r="I61" s="8">
+        <v>26.5</v>
+      </c>
+      <c r="J61" s="8">
+        <v>44.3</v>
+      </c>
+      <c r="K61" s="8">
+        <v>23.3</v>
+      </c>
+      <c r="L61" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="M61" s="8">
+        <v>0</v>
+      </c>
+      <c r="N61" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="O61" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
